--- a/xlsx/a69_f29UPPachuca.xlsx
+++ b/xlsx/a69_f29UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\3er Trimestre Fracciones faltantes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\MAYDELI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
     <t>Dirección de Planeación</t>
   </si>
   <si>
@@ -153,10 +150,13 @@
     <t>Trimestral</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1R6tu-hmafYztWCTvEjwkOdzbtY2yoPC8/view?usp=sharing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segundo  Informe de Actividades 2020 </t>
+    <t xml:space="preserve">Tercer  Informe de Actividades 2020 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1woLNWVry0bDHxAnKll281u52WC9qEw1s/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Dirección Jurídica</t>
   </si>
 </sst>
 </file>
@@ -193,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,12 +213,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1E1E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -250,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -266,9 +260,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,6 +271,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -589,7 +586,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,38 +612,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -731,21 +728,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -793,37 +790,37 @@
         <v>2020</v>
       </c>
       <c r="B8" s="5">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C8" s="5">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="3">
-        <v>44053</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="11">
+        <v>44147</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>44</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="L8" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M8" s="4"/>
     </row>

--- a/xlsx/a69_f29UPPachuca.xlsx
+++ b/xlsx/a69_f29UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\MAYDELI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -141,6 +141,9 @@
     <t>Nota</t>
   </si>
   <si>
+    <t>Dirección de Planeación (UPP)</t>
+  </si>
+  <si>
     <t>Dirección de Planeación</t>
   </si>
   <si>
@@ -150,13 +153,10 @@
     <t>Trimestral</t>
   </si>
   <si>
-    <t xml:space="preserve">Tercer  Informe de Actividades 2020 </t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1woLNWVry0bDHxAnKll281u52WC9qEw1s/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Dirección Jurídica</t>
+    <t>4to Informe de Actividades 2020</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VVlOSjzx0mAUJnwfQiDULhFvHv9C8pZA/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -193,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1E1E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -261,6 +267,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -272,10 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -585,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,16 +600,16 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="60.140625" customWidth="1"/>
     <col min="7" max="7" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="90.5703125" customWidth="1"/>
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -612,38 +618,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -728,21 +734,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -785,42 +791,42 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2020</v>
+    <row r="8" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2021</v>
       </c>
       <c r="B8" s="5">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C8" s="5">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="H8" s="3">
+        <v>44231</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="11">
-        <v>44147</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="L8" s="3">
-        <v>44206</v>
+      <c r="K8" s="5">
+        <v>44298</v>
+      </c>
+      <c r="L8" s="5">
+        <v>44298</v>
       </c>
       <c r="M8" s="4"/>
     </row>

--- a/xlsx/a69_f29UPPachuca.xlsx
+++ b/xlsx/a69_f29UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -153,10 +153,10 @@
     <t>Trimestral</t>
   </si>
   <si>
-    <t>4to Informe de Actividades 2020</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1VVlOSjzx0mAUJnwfQiDULhFvHv9C8pZA/view?usp=sharing</t>
+    <t>Segunda Sesión Ordinaria 2021</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aTAi7Qb1nPajbhiYMjG1IOo83IFYEtRE/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -270,6 +270,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -280,9 +283,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,38 +618,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -734,21 +734,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -796,10 +796,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="5">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="5">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>44</v>
@@ -814,19 +814,19 @@
         <v>43</v>
       </c>
       <c r="H8" s="3">
-        <v>44231</v>
-      </c>
-      <c r="I8" s="12" t="s">
+        <v>44320</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="5">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="L8" s="5">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M8" s="4"/>
     </row>

--- a/xlsx/a69_f29UPPachuca.xlsx
+++ b/xlsx/a69_f29UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>45731</t>
   </si>
@@ -144,19 +144,7 @@
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
-    <t>Dirección de Planeación</t>
-  </si>
-  <si>
-    <t>Decreto de Creación de la Universidad Politécnica de Pachuca en su artículo 26 de las facultades y obligaciones del Rector fracción X.</t>
-  </si>
-  <si>
-    <t>Trimestral</t>
-  </si>
-  <si>
-    <t>Segunda Sesión Ordinaria 2021</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1aTAi7Qb1nPajbhiYMjG1IOo83IFYEtRE/view?usp=sharing</t>
+    <t>Los hipervínculos que se encuentran vacíos es debido a que no se ha llevado a cabo la junta de gobierno, la cual aún no tiene fecha programada, en cuanto se lleve a cabo se podrán actualizar dicha información.</t>
   </si>
 </sst>
 </file>
@@ -250,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -272,6 +260,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -591,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="J3" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +600,7 @@
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="13" max="13" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -618,38 +609,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -734,21 +725,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -796,39 +787,29 @@
         <v>2021</v>
       </c>
       <c r="B8" s="5">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="5">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="3">
-        <v>44320</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>44469</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="5">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="L8" s="5">
-        <v>44386</v>
-      </c>
-      <c r="M8" s="4"/>
+        <v>44480</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -840,10 +821,7 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f29UPPachuca.xlsx
+++ b/xlsx/a69_f29UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>45731</t>
   </si>
@@ -144,7 +144,19 @@
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
-    <t>Los hipervínculos que se encuentran vacíos es debido a que no se ha llevado a cabo la junta de gobierno, la cual aún no tiene fecha programada, en cuanto se lleve a cabo se podrán actualizar dicha información.</t>
+    <t>Dirección de Planeación</t>
+  </si>
+  <si>
+    <t>Decreto de Creación de la Universidad Politécnica de Pachuca en su artículo 26 de las facultades y obligaciones del Rector fracción X.</t>
+  </si>
+  <si>
+    <t>Trimestral</t>
+  </si>
+  <si>
+    <t>Tercera Sesión Ordinaria 2021</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zxT-oMD3k_jmwqtT2mCP6dQhO7d53Ar8/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -238,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -246,9 +258,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
@@ -261,8 +270,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -582,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J3" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +609,7 @@
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="56.85546875" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -609,38 +618,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -725,21 +734,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -783,33 +792,43 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>2021</v>
       </c>
-      <c r="B8" s="5">
-        <v>44378</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44469</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="7"/>
+      <c r="B8" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44561</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
+        <v>44530</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="5">
-        <v>44480</v>
-      </c>
-      <c r="L8" s="5">
-        <v>44480</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="K8" s="4">
+        <v>44571</v>
+      </c>
+      <c r="L8" s="4">
+        <v>44571</v>
+      </c>
+      <c r="M8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -821,7 +840,10 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f29UPPachuca.xlsx
+++ b/xlsx/a69_f29UPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -144,19 +139,19 @@
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
-    <t>Dirección de Planeación</t>
-  </si>
-  <si>
     <t>Decreto de Creación de la Universidad Politécnica de Pachuca en su artículo 26 de las facultades y obligaciones del Rector fracción X.</t>
   </si>
   <si>
     <t>Trimestral</t>
   </si>
   <si>
-    <t>Tercera Sesión Ordinaria 2021</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1zxT-oMD3k_jmwqtT2mCP6dQhO7d53Ar8/view?usp=sharing</t>
+    <t>Cuarta Sesión Ordinaria 2021</t>
+  </si>
+  <si>
+    <t>Abogado General</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f29/INF.%20Actividades%20Cuarto%20Trim.%202021%20%281%29.pdf</t>
   </si>
 </sst>
 </file>
@@ -345,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,7 +375,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,28 +788,28 @@
     </row>
     <row r="8" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="4">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="H8" s="7">
-        <v>44530</v>
+        <v>44644</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>45</v>
@@ -823,10 +818,10 @@
         <v>40</v>
       </c>
       <c r="K8" s="4">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="L8" s="4">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="M8" s="3"/>
     </row>

--- a/xlsx/a69_f29UPPachuca.xlsx
+++ b/xlsx/a69_f29UPPachuca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -145,13 +150,13 @@
     <t>Trimestral</t>
   </si>
   <si>
-    <t>Cuarta Sesión Ordinaria 2021</t>
-  </si>
-  <si>
     <t>Abogado General</t>
   </si>
   <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f29/INF.%20Actividades%20Cuarto%20Trim.%202021%20%281%29.pdf</t>
+    <t>Primera Sesión Ordinaria 2022</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/29/Informe%20de%20actividades%20del%20Titular.pdf</t>
   </si>
 </sst>
 </file>
@@ -340,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,7 +380,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -586,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,16 +796,16 @@
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>41</v>
@@ -809,7 +814,7 @@
         <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>44644</v>
+        <v>44693</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>45</v>
@@ -818,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="K8" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="L8" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="M8" s="3"/>
     </row>

--- a/xlsx/a69_f29UPPachuca.xlsx
+++ b/xlsx/a69_f29UPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -141,29 +136,29 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
-    <t>Decreto de Creación de la Universidad Politécnica de Pachuca en su artículo 26 de las facultades y obligaciones del Rector fracción X.</t>
+    <t>Abogado General (UPP)</t>
+  </si>
+  <si>
+    <t>Abogado General</t>
+  </si>
+  <si>
+    <t>Decreto de Creación de la Universidad Politécnica de Pachuca en su artículo 26 de las facultades y obligaciones del Rector fracción X</t>
   </si>
   <si>
     <t>Trimestral</t>
   </si>
   <si>
-    <t>Abogado General</t>
-  </si>
-  <si>
-    <t>Primera Sesión Ordinaria 2022</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/29/Informe%20de%20actividades%20del%20Titular.pdf</t>
+    <t xml:space="preserve">Segunda Sesión Ordinaria </t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/29/Informe%20de%20actividades%20abril-junio%202022.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -185,6 +180,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -193,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,23 +207,12 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFE1E1E1"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -245,44 +235,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -345,7 +352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,7 +387,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,16 +607,16 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.140625" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" customWidth="1"/>
     <col min="7" max="7" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="90.5703125" customWidth="1"/>
+    <col min="9" max="9" width="72.28515625" customWidth="1"/>
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -618,38 +625,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -734,21 +741,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -791,42 +798,42 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="4">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="7">
-        <v>44693</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="4">
+        <v>44784</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="4">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="L8" s="4">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="M8" s="3"/>
     </row>
@@ -844,6 +851,5 @@
     <hyperlink ref="I8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f29UPPachuca.xlsx
+++ b/xlsx/a69_f29UPPachuca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -148,10 +148,10 @@
     <t>Trimestral</t>
   </si>
   <si>
-    <t xml:space="preserve">Segunda Sesión Ordinaria </t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/29/Informe%20de%20actividades%20abril-junio%202022.pdf</t>
+    <t xml:space="preserve">Tercera Sesión Ordinaria </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oExH3fCze5fUv9PS2WqwHenC4hKrQgJP/view?ts=63bf9a3e</t>
   </si>
 </sst>
 </file>
@@ -212,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -246,15 +246,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -277,19 +268,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -599,7 +592,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +605,7 @@
     <col min="6" max="6" width="48.7109375" customWidth="1"/>
     <col min="7" max="7" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="72.28515625" customWidth="1"/>
+    <col min="9" max="9" width="85.28515625" customWidth="1"/>
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
@@ -625,38 +618,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -741,21 +734,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -803,10 +796,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="4">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>44</v>
@@ -821,19 +814,19 @@
         <v>43</v>
       </c>
       <c r="H8" s="4">
-        <v>44784</v>
-      </c>
-      <c r="I8" s="11" t="s">
+        <v>44876</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="4">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="L8" s="4">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="M8" s="3"/>
     </row>

--- a/xlsx/a69_f29UPPachuca.xlsx
+++ b/xlsx/a69_f29UPPachuca.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-60" windowWidth="15600" windowHeight="10980"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -139,6 +139,9 @@
     <t>Abogado General (UPP)</t>
   </si>
   <si>
+    <t>Segunda Sesión Ordinaria</t>
+  </si>
+  <si>
     <t>Abogado General</t>
   </si>
   <si>
@@ -148,17 +151,14 @@
     <t>Trimestral</t>
   </si>
   <si>
-    <t xml:space="preserve">Tercera Sesión Ordinaria </t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1oExH3fCze5fUv9PS2WqwHenC4hKrQgJP/view?ts=63bf9a3e</t>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/29/INFORME%20DE%20ACTIVIDADES%20OCT-DIC%2022.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -178,6 +178,13 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -212,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -246,12 +253,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -259,26 +288,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -313,39 +348,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,7 +415,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,166 +459,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -592,7 +603,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,14 +613,14 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.7109375" customWidth="1"/>
+    <col min="6" max="6" width="47.140625" customWidth="1"/>
     <col min="7" max="7" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="85.28515625" customWidth="1"/>
+    <col min="9" max="9" width="74.140625" customWidth="1"/>
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -618,38 +629,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -734,21 +745,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -791,44 +802,44 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44835</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44926</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="4">
-        <v>44876</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="9">
+        <v>45009</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="4">
-        <v>44936</v>
-      </c>
-      <c r="L8" s="4">
-        <v>44936</v>
-      </c>
-      <c r="M8" s="3"/>
+      <c r="K8" s="3">
+        <v>45026</v>
+      </c>
+      <c r="L8" s="3">
+        <v>45026</v>
+      </c>
+      <c r="M8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -844,5 +855,6 @@
     <hyperlink ref="I8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f29UPPachuca.xlsx
+++ b/xlsx/a69_f29UPPachuca.xlsx
@@ -305,14 +305,14 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -592,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -603,7 +603,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,7 @@
     <col min="6" max="6" width="47.140625" customWidth="1"/>
     <col min="7" max="7" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="74.140625" customWidth="1"/>
+    <col min="9" max="9" width="136.7109375" customWidth="1"/>
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
@@ -629,33 +629,33 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
@@ -745,21 +745,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -827,7 +827,7 @@
       <c r="H8" s="9">
         <v>45009</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="10" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="2" t="s">

--- a/xlsx/a69_f29UPPachuca.xlsx
+++ b/xlsx/a69_f29UPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\SIPOT\Vo. Bo. Uno 2do Tri 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C09E441-A93F-4D3A-AF91-2D2D76A15E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-60" windowWidth="15600" windowHeight="10980"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>45731</t>
   </si>
@@ -70,6 +76,9 @@
     <t>378498</t>
   </si>
   <si>
+    <t>570773</t>
+  </si>
+  <si>
     <t>378508</t>
   </si>
   <si>
@@ -112,6 +121,9 @@
     <t>Denominación del área responsable de la elaboración y/o presentación del informe</t>
   </si>
   <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Descripción de la temática que se aborda en el informe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fundamento legal </t>
   </si>
   <si>
@@ -139,26 +151,14 @@
     <t>Abogado General (UPP)</t>
   </si>
   <si>
-    <t>Segunda Sesión Ordinaria</t>
-  </si>
-  <si>
-    <t>Abogado General</t>
-  </si>
-  <si>
-    <t>Decreto de Creación de la Universidad Politécnica de Pachuca en su artículo 26 de las facultades y obligaciones del Rector fracción X</t>
-  </si>
-  <si>
-    <t>Trimestral</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/29/INFORME%20DE%20ACTIVIDADES%20OCT-DIC%2022.pdf</t>
+    <t>La Universidad Politécnica de Pachuca no ha celebrado ninguna junta gobierno, esto de acuerdo a las indicaciones emitidas por la Secretraria de Media Superior y Superior.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -187,12 +187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -219,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -242,45 +236,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -292,20 +253,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -313,11 +268,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -338,9 +296,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -348,39 +306,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,7 +373,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,7 +408,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,151 +417,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,56 +595,57 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="136.7109375" customWidth="1"/>
-    <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="103.7109375" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" customWidth="1"/>
+    <col min="8" max="8" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="97" customWidth="1"/>
+    <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -682,28 +665,31 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>8</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -743,107 +729,105 @@
       <c r="M5" t="s">
         <v>25</v>
       </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2023</v>
       </c>
       <c r="B8" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C8" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="6" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="3">
+        <v>45117</v>
+      </c>
+      <c r="M8" s="3">
+        <v>45117</v>
+      </c>
+      <c r="N8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="9">
-        <v>45009</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="3">
-        <v>45026</v>
-      </c>
-      <c r="L8" s="3">
-        <v>45026</v>
-      </c>
-      <c r="M8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A6:N6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -851,10 +835,7 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>